--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689031.90922796</v>
+        <v>716379.1415249446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>10.06793172069476</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,61 +905,61 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>124.4376380720372</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,10 +1221,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.87279829194113</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>72.47049842454874</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>56.91690033700343</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.66067414728066</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.46061606973221</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>103.9917919211016</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2254,40 +2254,40 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>37.18582309281536</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888296</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>56.91690033700337</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.8842973311964</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.05241763862477</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>200.3360962888294</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.014288877659</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>81.94696239689861</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>29.0524176386246</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.014288877659</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,61 +3199,61 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072447</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>74.95904355882594</v>
       </c>
       <c r="C36" t="n">
-        <v>116.325098768111</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.19305615617946</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,28 +3545,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>62.88143347497266</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>29.14270706479791</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3743,64 +3743,64 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>91.56533252450008</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>90.08131101346673</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>72.47049842454857</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>72.64922416347089</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>358.0940480307835</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>358.0940480307835</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>358.0940480307835</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>358.0940480307835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.6452713866835</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>953.8875275099344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.883919072659</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C9" t="n">
-        <v>515.0172522330638</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D9" t="n">
-        <v>366.0828425718125</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>206.845387566357</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>60.310829593242</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H11" t="n">
-        <v>104.5536560184564</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5218,7 +5218,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,22 +5382,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>906.5653369884105</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>678.3417187247995</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>678.3417187247995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
         <v>19.28114311021272</v>
@@ -5455,7 +5455,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>929.0463735436861</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>726.8597789024521</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>498.6361606388412</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5692,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>874.7029978644421</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>874.7029978644421</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T21" t="n">
-        <v>874.7029978644421</v>
+        <v>588.4532163200709</v>
       </c>
       <c r="U21" t="n">
-        <v>874.7029978644421</v>
+        <v>360.2295980564599</v>
       </c>
       <c r="V21" t="n">
-        <v>639.5508896326994</v>
+        <v>125.0774898247172</v>
       </c>
       <c r="W21" t="n">
-        <v>396.1021129885993</v>
+        <v>125.0774898247172</v>
       </c>
       <c r="X21" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.608378866536</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.608378866536</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.159602222436</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>380.2300195200813</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389543</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>56.84258057770299</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>777.5613083818946</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V24" t="n">
-        <v>777.5613083818946</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W24" t="n">
-        <v>777.5613083818946</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>756.2056553051032</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>548.4453565401493</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>76.77296163243835</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,40 +6315,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="W27" t="n">
-        <v>778.3154410346802</v>
+        <v>492.3847606029251</v>
       </c>
       <c r="X27" t="n">
-        <v>570.4639408291474</v>
+        <v>284.5332603973923</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.7036420641935</v>
+        <v>76.77296163243835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6585,7 +6585,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.608378866536</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.057155510636</v>
       </c>
       <c r="W32" t="n">
-        <v>749.6274730425127</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984127</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543127</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564955</v>
+        <v>102.8099852548152</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564955</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D33" t="n">
-        <v>49.38115216564955</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E33" t="n">
-        <v>49.38115216564955</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F33" t="n">
-        <v>49.38115216564955</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299843</v>
@@ -6789,10 +6789,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563266</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O33" t="n">
-        <v>964.057155510636</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P33" t="n">
         <v>964.057155510636</v>
@@ -6807,22 +6807,22 @@
         <v>964.057155510636</v>
       </c>
       <c r="T33" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470251</v>
+        <v>761.870560869402</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152824</v>
+        <v>761.870560869402</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711824</v>
+        <v>518.421784225302</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564955</v>
+        <v>310.5702840197691</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564955</v>
+        <v>102.8099852548152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>862.8876260635217</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7178,46 +7178,46 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278869</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7421,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>259.0600686093459</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>112.5255106362308</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="V42" t="n">
-        <v>259.0600686093459</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="W42" t="n">
-        <v>259.0600686093459</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="X42" t="n">
-        <v>259.0600686093459</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>259.0600686093459</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7664,34 +7664,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066563</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700906</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700906</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>297.0870952088393</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>297.0870952088393</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>297.0870952088393</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7731,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T45" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U45" t="n">
-        <v>705.7335281915883</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V45" t="n">
-        <v>470.5814199598456</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="W45" t="n">
-        <v>227.1326433157456</v>
+        <v>446.0215048700906</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700906</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700906</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,7 +8784,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,13 +9015,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9252,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996773</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,19 +10668,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.3233546697745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,19 +22680,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>215.8734503602801</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.24505770526716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>371.540785507301</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,28 +23063,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23109,10 +23109,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.4707188712695</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>138.0053911458572</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>160.0089112227261</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23622,25 +23622,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>143.2478283578182</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>137.0224969565572</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,22 +24020,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.69721808291092</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>101.7811932823759</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,16 +24257,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,10 +24288,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625856</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,7 +24339,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>41.31049342352063</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.901842367224</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>115.7915986513124</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,13 +24576,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.6302781386796</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24880,7 +24880,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>164.9367954821781</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783946</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>90.76153659141713</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>108.291099524586</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25047,13 +25047,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326061</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>318.2910467450426</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,16 +25202,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>91.5741400910414</v>
       </c>
       <c r="C36" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160823</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6517501748947</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>45.77818463871056</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25770,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>115.6916741900107</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>310.263343238932</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>64.69429299973974</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
   </sheetData>
@@ -26350,7 +26350,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>124620.5043984993</v>
+        <v>124620.5043984992</v>
       </c>
       <c r="P2" t="n">
         <v>124620.5043984993</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7878.313774060349</v>
+        <v>-4609.728394514081</v>
       </c>
       <c r="C6" t="n">
-        <v>72891.1177574874</v>
+        <v>76159.70313703366</v>
       </c>
       <c r="D6" t="n">
-        <v>72891.1177574874</v>
+        <v>76159.70313703366</v>
       </c>
       <c r="E6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="F6" t="n">
-        <v>106518.7177574873</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="G6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="H6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="I6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>43458.77515838113</v>
+        <v>46727.36053792739</v>
       </c>
       <c r="K6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="L6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="O6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="P6" t="n">
-        <v>106518.7177574874</v>
+        <v>109787.3031370336</v>
       </c>
     </row>
   </sheetData>
@@ -26805,13 +26805,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>241.0142888776591</v>
@@ -26820,16 +26820,16 @@
         <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35504,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,13 +35735,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,13 +35972,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>241.014288877659</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036207</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>181.894799580463</v>
       </c>
       <c r="M38" t="n">
         <v>219.1673002655598</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
